--- a/data/data_test/Example_Fiche_Choix.xlsx
+++ b/data/data_test/Example_Fiche_Choix.xlsx
@@ -8,8 +8,8 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="ChoixRolePrincipal" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="ChoixRoleSecondaire" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="ChoixRolePrincipalN" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="ChoixRolePrincipalN-1" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="32">
   <si>
     <t xml:space="preserve">Nom</t>
   </si>
@@ -53,15 +53,33 @@
     <t xml:space="preserve">M1</t>
   </si>
   <si>
+    <t xml:space="preserve">Projet1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Collaborateur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHAPO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Projet2</t>
+  </si>
+  <si>
     <t xml:space="preserve">Etu2</t>
   </si>
   <si>
+    <t xml:space="preserve">PO</t>
+  </si>
+  <si>
     <t xml:space="preserve">Etu3</t>
   </si>
   <si>
     <t xml:space="preserve">Etu4</t>
   </si>
   <si>
+    <t xml:space="preserve">SM</t>
+  </si>
+  <si>
     <t xml:space="preserve">Etu5</t>
   </si>
   <si>
@@ -98,10 +116,7 @@
     <t xml:space="preserve">Etu15</t>
   </si>
   <si>
-    <t xml:space="preserve">ProjetSecondaire_Choix1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RoleSecondaire_Choix1</t>
+    <t xml:space="preserve">Projet3</t>
   </si>
 </sst>
 </file>
@@ -176,13 +191,17 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -205,10 +224,10 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
+      <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="24.9921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="25.01953125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -236,124 +255,394 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>23</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>23</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>23</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>23</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>23</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>23</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>23</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -372,13 +661,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E8" activeCellId="0" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="24.9921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="25.01953125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -388,15 +677,413 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
+      <c r="B12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>18</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
